--- a/Configs/excels/Demo.xlsx
+++ b/Configs/excels/Demo.xlsx
@@ -1,28 +1,112 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="NPC" sheetId="1" r:id="rId1"/>
+    <sheet name="@Types" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeated int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepeatCheck:true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MakeIndex:true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ListSpliter:","</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableName: "NPC" Package: "table" CSClassHeader: "[System.Serializable]"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -50,15 +134,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -343,37 +432,125 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="24.75" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>10001</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Configs/excels/Demo.xlsx
+++ b/Configs/excels/Demo.xlsx
@@ -1,124 +1,439 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
+    <workbookView windowWidth="21000" windowHeight="11820" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="NPC" sheetId="1" r:id="rId1"/>
+    <sheet name="Demo" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>Skills</t>
   </si>
   <si>
     <t>int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skills</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>repeated int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RepeatCheck:true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepeatCheck:true MakeIndex:true</t>
   </si>
   <si>
     <t>MakeIndex:true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ListSpliter:","</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>血量上限</t>
+  </si>
+  <si>
+    <t>技能列表</t>
   </si>
   <si>
     <t>npc1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1,2,3,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TableName: "NPC" Package: "table" CSClassHeader: "[System.Serializable]"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableName: "Demo" Package: "DC" CSClassHeader: "[System.Serializable]"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -126,17 +441,306 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -427,19 +1031,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="23.125" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
@@ -447,35 +1051,35 @@
     <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -486,71 +1090,75 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>10001</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>1000</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Configs/excels/Demo.xlsx
+++ b/Configs/excels/Demo.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Demo" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -74,12 +73,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,15 +87,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,52 +163,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,16 +177,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,14 +195,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,28 +208,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -238,6 +215,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -248,187 +240,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,16 +450,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,21 +488,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -515,16 +501,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,148 +534,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1040,7 +1032,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A3" sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -1131,7 +1123,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1145,20 +1137,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
 </file>